--- a/code/results/entropy_P1_sampen_2_1_0.8_prepost_stats.xlsx
+++ b/code/results/entropy_P1_sampen_2_1_0.8_prepost_stats.xlsx
@@ -698,7 +698,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8.418195900968507e-15</v>
+        <v>8.41819590096869e-15</v>
       </c>
       <c r="F9" t="n">
         <v>29.65213864901455</v>
@@ -1268,7 +1268,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2.652047203203383e-06</v>
+        <v>2.652047203203382e-06</v>
       </c>
       <c r="F28" t="n">
         <v>-12.48509607308563</v>
@@ -1478,7 +1478,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>5.562968774207635e-14</v>
+        <v>5.562968774207636e-14</v>
       </c>
       <c r="F35" t="n">
         <v>-15.83065082367506</v>
@@ -1748,7 +1748,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>3.852575770486518e-15</v>
+        <v>3.852575770486519e-15</v>
       </c>
       <c r="F44" t="n">
         <v>59.93747588665526</v>
@@ -1778,7 +1778,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.4284485137627326</v>
+        <v>0.4284485137627327</v>
       </c>
       <c r="F45" t="n">
         <v>3.051749584276973</v>
@@ -1808,7 +1808,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.001887570874979438</v>
+        <v>0.001887570874979489</v>
       </c>
       <c r="F46" t="n">
         <v>-8.326217946379165</v>
@@ -1898,7 +1898,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.7266846288265741</v>
+        <v>0.726684628826574</v>
       </c>
       <c r="F49" t="n">
         <v>-2.38049609788759</v>
@@ -2198,7 +2198,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0.6388028497289028</v>
+        <v>0.6388028497289029</v>
       </c>
       <c r="F59" t="n">
         <v>0.910129593357542</v>
@@ -2498,7 +2498,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0.5582075020682726</v>
+        <v>0.5582075020682725</v>
       </c>
       <c r="F69" t="n">
         <v>2.089574875318074</v>
@@ -2888,7 +2888,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>0.6915660606890698</v>
+        <v>0.6915660606890699</v>
       </c>
       <c r="F82" t="n">
         <v>1.04023778491511</v>
@@ -3308,7 +3308,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>0.4498430517838189</v>
+        <v>0.4498430517838188</v>
       </c>
       <c r="F96" t="n">
         <v>4.067980017274283</v>
@@ -3686,7 +3686,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>4.408997680303262e-15</v>
+        <v>4.408997680303261e-15</v>
       </c>
       <c r="F111" t="n">
         <v>25.88509311610828</v>
@@ -3806,7 +3806,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>0.04167044738809892</v>
+        <v>0.04167044738809893</v>
       </c>
       <c r="F115" t="n">
         <v>-6.002602315866214</v>
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>0.0002010781117231612</v>
+        <v>0.0002010781117231613</v>
       </c>
       <c r="F123" t="n">
         <v>11.38628264287586</v>
@@ -4106,7 +4106,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>0.0289734191433283</v>
+        <v>0.02897341914332831</v>
       </c>
       <c r="F125" t="n">
         <v>4.302983158493388</v>
@@ -4406,7 +4406,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>0.5216026729502712</v>
+        <v>0.5216026729502714</v>
       </c>
       <c r="F135" t="n">
         <v>-1.643085757032844</v>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>0.0004578059065533296</v>
+        <v>0.0004578059065533297</v>
       </c>
       <c r="F137" t="n">
         <v>-6.180206502431174</v>
@@ -4676,7 +4676,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>8.407431742334269e-06</v>
+        <v>8.407431742334267e-06</v>
       </c>
       <c r="F144" t="n">
         <v>15.95348585336843</v>
@@ -4916,7 +4916,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>0.6356822678997935</v>
+        <v>0.6356822678997937</v>
       </c>
       <c r="F152" t="n">
         <v>-1.757608434540435</v>
@@ -5276,7 +5276,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>0.04655521056201403</v>
+        <v>0.04655521056201404</v>
       </c>
       <c r="F164" t="n">
         <v>5.288933207029567</v>
@@ -5906,7 +5906,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>0.607301493642158</v>
+        <v>0.6073014936421581</v>
       </c>
       <c r="F185" t="n">
         <v>-1.109467776549306</v>
